--- a/backend/data/odds/total_hits.xlsx
+++ b/backend/data/odds/total_hits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="965" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3843BD3-2CD1-41EF-8CB1-BF4B58F9BD07}"/>
+  <xr:revisionPtr revIDLastSave="1038" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DE9322-C8DF-4C7C-A6C7-DA492398E9A3}"/>
   <bookViews>
-    <workbookView xWindow="2350" yWindow="600" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3850" yWindow="340" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="38">
   <si>
     <t>visitor</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="F262" sqref="F262"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="F278" sqref="F278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5339,6 +5339,290 @@
         <v>-165</v>
       </c>
     </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265">
+        <v>15.5</v>
+      </c>
+      <c r="E265">
+        <v>105</v>
+      </c>
+      <c r="F265">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B266" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" t="s">
+        <v>20</v>
+      </c>
+      <c r="D266">
+        <v>18.5</v>
+      </c>
+      <c r="E266">
+        <v>-105</v>
+      </c>
+      <c r="F266">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B267" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267">
+        <v>14.5</v>
+      </c>
+      <c r="E267">
+        <v>-140</v>
+      </c>
+      <c r="F267">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B268" t="s">
+        <v>30</v>
+      </c>
+      <c r="C268" t="s">
+        <v>23</v>
+      </c>
+      <c r="D268">
+        <v>15.5</v>
+      </c>
+      <c r="E268">
+        <v>105</v>
+      </c>
+      <c r="F268">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B269" t="s">
+        <v>33</v>
+      </c>
+      <c r="C269" t="s">
+        <v>26</v>
+      </c>
+      <c r="D269">
+        <v>16.5</v>
+      </c>
+      <c r="E269">
+        <v>125</v>
+      </c>
+      <c r="F269">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B270" t="s">
+        <v>18</v>
+      </c>
+      <c r="C270" t="s">
+        <v>32</v>
+      </c>
+      <c r="D270">
+        <v>16.5</v>
+      </c>
+      <c r="E270">
+        <v>-110</v>
+      </c>
+      <c r="F270">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B271" t="s">
+        <v>29</v>
+      </c>
+      <c r="C271" t="s">
+        <v>17</v>
+      </c>
+      <c r="D271">
+        <v>16.5</v>
+      </c>
+      <c r="E271">
+        <v>-110</v>
+      </c>
+      <c r="F271">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B272" t="s">
+        <v>36</v>
+      </c>
+      <c r="C272" t="s">
+        <v>27</v>
+      </c>
+      <c r="D272">
+        <v>15.5</v>
+      </c>
+      <c r="E272">
+        <v>105</v>
+      </c>
+      <c r="F272">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274">
+        <v>16.5</v>
+      </c>
+      <c r="E274">
+        <v>105</v>
+      </c>
+      <c r="F274">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B275" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" t="s">
+        <v>35</v>
+      </c>
+      <c r="D275">
+        <v>16.5</v>
+      </c>
+      <c r="E275">
+        <v>-110</v>
+      </c>
+      <c r="F275">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B276" t="s">
+        <v>34</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276">
+        <v>15.5</v>
+      </c>
+      <c r="E276">
+        <v>120</v>
+      </c>
+      <c r="F276">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B277" t="s">
+        <v>10</v>
+      </c>
+      <c r="C277" t="s">
+        <v>16</v>
+      </c>
+      <c r="D277">
+        <v>15.5</v>
+      </c>
+      <c r="E277">
+        <v>105</v>
+      </c>
+      <c r="F277">
+        <v>-135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/odds/total_hits.xlsx
+++ b/backend/data/odds/total_hits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1038" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DE9322-C8DF-4C7C-A6C7-DA492398E9A3}"/>
+  <xr:revisionPtr revIDLastSave="1073" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302742F4-E07B-4AD1-831C-DE26AB8DB6E5}"/>
   <bookViews>
-    <workbookView xWindow="3850" yWindow="340" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="38">
   <si>
     <t>visitor</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="F278" sqref="F278"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="F292" sqref="F292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5623,6 +5623,281 @@
         <v>-135</v>
       </c>
     </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B278" t="s">
+        <v>14</v>
+      </c>
+      <c r="C278" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B279" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279">
+        <v>15.5</v>
+      </c>
+      <c r="E279">
+        <v>105</v>
+      </c>
+      <c r="F279">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280">
+        <v>15.5</v>
+      </c>
+      <c r="E280">
+        <v>-130</v>
+      </c>
+      <c r="F280">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B281" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" t="s">
+        <v>20</v>
+      </c>
+      <c r="D281">
+        <v>18.5</v>
+      </c>
+      <c r="E281">
+        <v>-105</v>
+      </c>
+      <c r="F281">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B282" t="s">
+        <v>29</v>
+      </c>
+      <c r="C282" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282">
+        <v>16.5</v>
+      </c>
+      <c r="E282">
+        <v>125</v>
+      </c>
+      <c r="F282">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B283" t="s">
+        <v>36</v>
+      </c>
+      <c r="C283" t="s">
+        <v>27</v>
+      </c>
+      <c r="D283">
+        <v>14.5</v>
+      </c>
+      <c r="E283">
+        <v>-140</v>
+      </c>
+      <c r="F283">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B284" t="s">
+        <v>30</v>
+      </c>
+      <c r="C284" t="s">
+        <v>23</v>
+      </c>
+      <c r="D284">
+        <v>15.5</v>
+      </c>
+      <c r="E284">
+        <v>-110</v>
+      </c>
+      <c r="F284">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B285" t="s">
+        <v>33</v>
+      </c>
+      <c r="C285" t="s">
+        <v>26</v>
+      </c>
+      <c r="D285">
+        <v>16.5</v>
+      </c>
+      <c r="E285">
+        <v>-110</v>
+      </c>
+      <c r="F285">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B286" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" t="s">
+        <v>32</v>
+      </c>
+      <c r="D286">
+        <v>17.5</v>
+      </c>
+      <c r="E286">
+        <v>125</v>
+      </c>
+      <c r="F286">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B287" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B288" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B289" t="s">
+        <v>25</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289">
+        <v>16.5</v>
+      </c>
+      <c r="E289">
+        <v>105</v>
+      </c>
+      <c r="F289">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" t="s">
+        <v>16</v>
+      </c>
+      <c r="D290">
+        <v>16.5</v>
+      </c>
+      <c r="E290">
+        <v>105</v>
+      </c>
+      <c r="F290">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B291" t="s">
+        <v>34</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291">
+        <v>15.5</v>
+      </c>
+      <c r="E291">
+        <v>120</v>
+      </c>
+      <c r="F291">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B293" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/odds/total_hits.xlsx
+++ b/backend/data/odds/total_hits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1073" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302742F4-E07B-4AD1-831C-DE26AB8DB6E5}"/>
+  <xr:revisionPtr revIDLastSave="1328" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0677C4AE-445E-4742-B7BA-09C9B5C30F95}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="440" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="38">
   <si>
     <t>visitor</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="F292" sqref="F292"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5898,6 +5898,1608 @@
         <v>37</v>
       </c>
     </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294">
+        <v>15.5</v>
+      </c>
+      <c r="E294">
+        <v>-115</v>
+      </c>
+      <c r="F294">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B295" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" t="s">
+        <v>20</v>
+      </c>
+      <c r="D295">
+        <v>18.5</v>
+      </c>
+      <c r="E295">
+        <v>-105</v>
+      </c>
+      <c r="F295">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" t="s">
+        <v>28</v>
+      </c>
+      <c r="D296">
+        <v>16.5</v>
+      </c>
+      <c r="E296">
+        <v>-110</v>
+      </c>
+      <c r="F296">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B297" t="s">
+        <v>21</v>
+      </c>
+      <c r="C297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B298" t="s">
+        <v>18</v>
+      </c>
+      <c r="C298" t="s">
+        <v>32</v>
+      </c>
+      <c r="D298">
+        <v>15.5</v>
+      </c>
+      <c r="E298">
+        <v>-130</v>
+      </c>
+      <c r="F298">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B299" t="s">
+        <v>26</v>
+      </c>
+      <c r="C299" t="s">
+        <v>37</v>
+      </c>
+      <c r="D299">
+        <v>16.5</v>
+      </c>
+      <c r="E299">
+        <v>105</v>
+      </c>
+      <c r="F299">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B300" t="s">
+        <v>30</v>
+      </c>
+      <c r="C300" t="s">
+        <v>23</v>
+      </c>
+      <c r="D300">
+        <v>16.5</v>
+      </c>
+      <c r="E300">
+        <v>-110</v>
+      </c>
+      <c r="F300">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B301" t="s">
+        <v>35</v>
+      </c>
+      <c r="C301" t="s">
+        <v>17</v>
+      </c>
+      <c r="D301">
+        <v>16.5</v>
+      </c>
+      <c r="E301">
+        <v>-110</v>
+      </c>
+      <c r="F301">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B302" t="s">
+        <v>36</v>
+      </c>
+      <c r="C302" t="s">
+        <v>29</v>
+      </c>
+      <c r="D302">
+        <v>15.5</v>
+      </c>
+      <c r="E302">
+        <v>105</v>
+      </c>
+      <c r="F302">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B303" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" t="s">
+        <v>11</v>
+      </c>
+      <c r="D303">
+        <v>16.5</v>
+      </c>
+      <c r="E303">
+        <v>-110</v>
+      </c>
+      <c r="F303">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304">
+        <v>16.5</v>
+      </c>
+      <c r="E304">
+        <v>-110</v>
+      </c>
+      <c r="F304">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B305" t="s">
+        <v>20</v>
+      </c>
+      <c r="C305" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B306" t="s">
+        <v>21</v>
+      </c>
+      <c r="C306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B307" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" t="s">
+        <v>22</v>
+      </c>
+      <c r="D307">
+        <v>15.5</v>
+      </c>
+      <c r="E307">
+        <v>105</v>
+      </c>
+      <c r="F307">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B308" t="s">
+        <v>16</v>
+      </c>
+      <c r="C308" t="s">
+        <v>23</v>
+      </c>
+      <c r="D308">
+        <v>16.5</v>
+      </c>
+      <c r="E308">
+        <v>105</v>
+      </c>
+      <c r="F308">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B309" t="s">
+        <v>34</v>
+      </c>
+      <c r="C309" t="s">
+        <v>32</v>
+      </c>
+      <c r="D309">
+        <v>16.5</v>
+      </c>
+      <c r="E309">
+        <v>-110</v>
+      </c>
+      <c r="F309">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B310" t="s">
+        <v>26</v>
+      </c>
+      <c r="C310" t="s">
+        <v>37</v>
+      </c>
+      <c r="D310">
+        <v>14.5</v>
+      </c>
+      <c r="E310">
+        <v>-120</v>
+      </c>
+      <c r="F310">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B311" t="s">
+        <v>35</v>
+      </c>
+      <c r="C311" t="s">
+        <v>17</v>
+      </c>
+      <c r="D311">
+        <v>16.5</v>
+      </c>
+      <c r="E311">
+        <v>105</v>
+      </c>
+      <c r="F311">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B312" t="s">
+        <v>27</v>
+      </c>
+      <c r="C312" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B313" t="s">
+        <v>36</v>
+      </c>
+      <c r="C313" t="s">
+        <v>29</v>
+      </c>
+      <c r="D313">
+        <v>15.5</v>
+      </c>
+      <c r="E313">
+        <v>105</v>
+      </c>
+      <c r="F313">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B314" t="s">
+        <v>9</v>
+      </c>
+      <c r="C314" t="s">
+        <v>11</v>
+      </c>
+      <c r="D314">
+        <v>17.5</v>
+      </c>
+      <c r="E314">
+        <v>125</v>
+      </c>
+      <c r="F314">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B315" t="s">
+        <v>19</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>28</v>
+      </c>
+      <c r="D316">
+        <v>15.5</v>
+      </c>
+      <c r="E316">
+        <v>105</v>
+      </c>
+      <c r="F316">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B317" t="s">
+        <v>9</v>
+      </c>
+      <c r="C317" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B318" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" t="s">
+        <v>22</v>
+      </c>
+      <c r="D318">
+        <v>15.5</v>
+      </c>
+      <c r="E318">
+        <v>105</v>
+      </c>
+      <c r="F318">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>5</v>
+      </c>
+      <c r="D319">
+        <v>14.5</v>
+      </c>
+      <c r="E319">
+        <v>-140</v>
+      </c>
+      <c r="F319">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B320" t="s">
+        <v>20</v>
+      </c>
+      <c r="C320" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B321" t="s">
+        <v>21</v>
+      </c>
+      <c r="C321" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B322" t="s">
+        <v>27</v>
+      </c>
+      <c r="C322" t="s">
+        <v>30</v>
+      </c>
+      <c r="D322">
+        <v>16.5</v>
+      </c>
+      <c r="E322">
+        <v>125</v>
+      </c>
+      <c r="F322">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B323" t="s">
+        <v>35</v>
+      </c>
+      <c r="C323" t="s">
+        <v>17</v>
+      </c>
+      <c r="D323">
+        <v>16.5</v>
+      </c>
+      <c r="E323">
+        <v>105</v>
+      </c>
+      <c r="F323">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B324" t="s">
+        <v>34</v>
+      </c>
+      <c r="C324" t="s">
+        <v>32</v>
+      </c>
+      <c r="D324">
+        <v>16.5</v>
+      </c>
+      <c r="E324">
+        <v>125</v>
+      </c>
+      <c r="F324">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B325" t="s">
+        <v>26</v>
+      </c>
+      <c r="C325" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B326" t="s">
+        <v>16</v>
+      </c>
+      <c r="C326" t="s">
+        <v>23</v>
+      </c>
+      <c r="D326">
+        <v>16.5</v>
+      </c>
+      <c r="E326">
+        <v>105</v>
+      </c>
+      <c r="F326">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B327" t="s">
+        <v>36</v>
+      </c>
+      <c r="C327" t="s">
+        <v>29</v>
+      </c>
+      <c r="D327">
+        <v>15.5</v>
+      </c>
+      <c r="E327">
+        <v>-110</v>
+      </c>
+      <c r="F327">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B328" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328" t="s">
+        <v>18</v>
+      </c>
+      <c r="D328">
+        <v>16.5</v>
+      </c>
+      <c r="E328">
+        <v>-110</v>
+      </c>
+      <c r="F328">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B329" t="s">
+        <v>19</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B330" t="s">
+        <v>26</v>
+      </c>
+      <c r="C330" t="s">
+        <v>37</v>
+      </c>
+      <c r="D330">
+        <v>14.5</v>
+      </c>
+      <c r="E330">
+        <v>-125</v>
+      </c>
+      <c r="F330">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>12</v>
+      </c>
+      <c r="D331">
+        <v>16.5</v>
+      </c>
+      <c r="E331">
+        <v>125</v>
+      </c>
+      <c r="F331">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B332" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332">
+        <v>16.5</v>
+      </c>
+      <c r="E332">
+        <v>105</v>
+      </c>
+      <c r="F332">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B333" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" t="s">
+        <v>22</v>
+      </c>
+      <c r="D333">
+        <v>15.5</v>
+      </c>
+      <c r="E333">
+        <v>-130</v>
+      </c>
+      <c r="F333">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B334" t="s">
+        <v>20</v>
+      </c>
+      <c r="C334" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B335" t="s">
+        <v>21</v>
+      </c>
+      <c r="C335" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B336" t="s">
+        <v>19</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>15.5</v>
+      </c>
+      <c r="E336">
+        <v>-110</v>
+      </c>
+      <c r="F336">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B337" t="s">
+        <v>16</v>
+      </c>
+      <c r="C337" t="s">
+        <v>23</v>
+      </c>
+      <c r="D337">
+        <v>15.5</v>
+      </c>
+      <c r="E337">
+        <v>105</v>
+      </c>
+      <c r="F337">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B338" t="s">
+        <v>25</v>
+      </c>
+      <c r="C338" t="s">
+        <v>33</v>
+      </c>
+      <c r="D338">
+        <v>15.5</v>
+      </c>
+      <c r="E338">
+        <v>105</v>
+      </c>
+      <c r="F338">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B339" t="s">
+        <v>26</v>
+      </c>
+      <c r="C339" t="s">
+        <v>37</v>
+      </c>
+      <c r="D339">
+        <v>16.5</v>
+      </c>
+      <c r="E339">
+        <v>125</v>
+      </c>
+      <c r="F339">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B340" t="s">
+        <v>35</v>
+      </c>
+      <c r="C340" t="s">
+        <v>17</v>
+      </c>
+      <c r="D340">
+        <v>16.5</v>
+      </c>
+      <c r="E340">
+        <v>-110</v>
+      </c>
+      <c r="F340">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B341" t="s">
+        <v>27</v>
+      </c>
+      <c r="C341" t="s">
+        <v>30</v>
+      </c>
+      <c r="D341">
+        <v>15.5</v>
+      </c>
+      <c r="E341">
+        <v>105</v>
+      </c>
+      <c r="F341">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B342" t="s">
+        <v>36</v>
+      </c>
+      <c r="C342" t="s">
+        <v>29</v>
+      </c>
+      <c r="D342">
+        <v>15.5</v>
+      </c>
+      <c r="E342">
+        <v>-130</v>
+      </c>
+      <c r="F342">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B343" t="s">
+        <v>8</v>
+      </c>
+      <c r="C343" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343">
+        <v>16.5</v>
+      </c>
+      <c r="E343">
+        <v>-110</v>
+      </c>
+      <c r="F343">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B344" t="s">
+        <v>25</v>
+      </c>
+      <c r="C344" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B345" t="s">
+        <v>16</v>
+      </c>
+      <c r="C345" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B347" t="s">
+        <v>19</v>
+      </c>
+      <c r="C347" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347">
+        <v>15.5</v>
+      </c>
+      <c r="E347">
+        <v>-110</v>
+      </c>
+      <c r="F347">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
+      <c r="D348">
+        <v>15.5</v>
+      </c>
+      <c r="E348">
+        <v>-110</v>
+      </c>
+      <c r="F348">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B349" t="s">
+        <v>21</v>
+      </c>
+      <c r="C349" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B350" t="s">
+        <v>6</v>
+      </c>
+      <c r="C350" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B351" t="s">
+        <v>20</v>
+      </c>
+      <c r="C351" t="s">
+        <v>22</v>
+      </c>
+      <c r="D351">
+        <v>14.5</v>
+      </c>
+      <c r="E351">
+        <v>-140</v>
+      </c>
+      <c r="F351">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B352" t="s">
+        <v>27</v>
+      </c>
+      <c r="C352" t="s">
+        <v>35</v>
+      </c>
+      <c r="D352">
+        <v>15.5</v>
+      </c>
+      <c r="E352">
+        <v>105</v>
+      </c>
+      <c r="F352">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B353" t="s">
+        <v>15</v>
+      </c>
+      <c r="C353" t="s">
+        <v>34</v>
+      </c>
+      <c r="D353">
+        <v>15.5</v>
+      </c>
+      <c r="E353">
+        <v>-110</v>
+      </c>
+      <c r="F353">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B354" t="s">
+        <v>36</v>
+      </c>
+      <c r="C354" t="s">
+        <v>18</v>
+      </c>
+      <c r="D354">
+        <v>15.5</v>
+      </c>
+      <c r="E354">
+        <v>-110</v>
+      </c>
+      <c r="F354">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B355" t="s">
+        <v>28</v>
+      </c>
+      <c r="C355" t="s">
+        <v>29</v>
+      </c>
+      <c r="D355">
+        <v>16.5</v>
+      </c>
+      <c r="E355">
+        <v>125</v>
+      </c>
+      <c r="F355">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B356" t="s">
+        <v>19</v>
+      </c>
+      <c r="C356" t="s">
+        <v>9</v>
+      </c>
+      <c r="D356">
+        <v>16.5</v>
+      </c>
+      <c r="E356">
+        <v>-110</v>
+      </c>
+      <c r="F356">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>11</v>
+      </c>
+      <c r="D357">
+        <v>16.5</v>
+      </c>
+      <c r="E357">
+        <v>105</v>
+      </c>
+      <c r="F357">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B358" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B359" t="s">
+        <v>21</v>
+      </c>
+      <c r="C359" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B360" t="s">
+        <v>20</v>
+      </c>
+      <c r="C360" t="s">
+        <v>22</v>
+      </c>
+      <c r="D360">
+        <v>15.5</v>
+      </c>
+      <c r="E360">
+        <v>-110</v>
+      </c>
+      <c r="F360">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B361" t="s">
+        <v>35</v>
+      </c>
+      <c r="C361" t="s">
+        <v>27</v>
+      </c>
+      <c r="D361">
+        <v>14.5</v>
+      </c>
+      <c r="E361">
+        <v>-125</v>
+      </c>
+      <c r="F361">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B362" t="s">
+        <v>27</v>
+      </c>
+      <c r="C362" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B363" t="s">
+        <v>26</v>
+      </c>
+      <c r="C363" t="s">
+        <v>33</v>
+      </c>
+      <c r="D363">
+        <v>15.5</v>
+      </c>
+      <c r="E363">
+        <v>-115</v>
+      </c>
+      <c r="F363">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B364" t="s">
+        <v>17</v>
+      </c>
+      <c r="C364" t="s">
+        <v>30</v>
+      </c>
+      <c r="D364">
+        <v>14.5</v>
+      </c>
+      <c r="E364">
+        <v>-125</v>
+      </c>
+      <c r="F364">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B365" t="s">
+        <v>16</v>
+      </c>
+      <c r="C365" t="s">
+        <v>25</v>
+      </c>
+      <c r="D365">
+        <v>16.5</v>
+      </c>
+      <c r="E365">
+        <v>105</v>
+      </c>
+      <c r="F365">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B366" t="s">
+        <v>15</v>
+      </c>
+      <c r="C366" t="s">
+        <v>34</v>
+      </c>
+      <c r="D366">
+        <v>15.5</v>
+      </c>
+      <c r="E366">
+        <v>-130</v>
+      </c>
+      <c r="F366">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B367" t="s">
+        <v>36</v>
+      </c>
+      <c r="C367" t="s">
+        <v>18</v>
+      </c>
+      <c r="D367">
+        <v>16.5</v>
+      </c>
+      <c r="E367">
+        <v>-110</v>
+      </c>
+      <c r="F367">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B368" t="s">
+        <v>32</v>
+      </c>
+      <c r="C368" t="s">
+        <v>12</v>
+      </c>
+      <c r="D368">
+        <v>15.5</v>
+      </c>
+      <c r="E368">
+        <v>105</v>
+      </c>
+      <c r="F368">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B369" t="s">
+        <v>28</v>
+      </c>
+      <c r="C369" t="s">
+        <v>29</v>
+      </c>
+      <c r="D369">
+        <v>15.5</v>
+      </c>
+      <c r="E369">
+        <v>105</v>
+      </c>
+      <c r="F369">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B370" t="s">
+        <v>19</v>
+      </c>
+      <c r="C370" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370">
+        <v>16.5</v>
+      </c>
+      <c r="E370">
+        <v>-110</v>
+      </c>
+      <c r="F370">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>11</v>
+      </c>
+      <c r="D371">
+        <v>17.5</v>
+      </c>
+      <c r="E371">
+        <v>-105</v>
+      </c>
+      <c r="F371">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B372" t="s">
+        <v>21</v>
+      </c>
+      <c r="C372" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B373" t="s">
+        <v>20</v>
+      </c>
+      <c r="C373" t="s">
+        <v>22</v>
+      </c>
+      <c r="D373">
+        <v>15.5</v>
+      </c>
+      <c r="E373">
+        <v>-110</v>
+      </c>
+      <c r="F373">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B374" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" t="s">
+        <v>8</v>
+      </c>
+      <c r="D375">
+        <v>16.5</v>
+      </c>
+      <c r="E375">
+        <v>105</v>
+      </c>
+      <c r="F375">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B376" t="s">
+        <v>26</v>
+      </c>
+      <c r="C376" t="s">
+        <v>33</v>
+      </c>
+      <c r="D376">
+        <v>15.5</v>
+      </c>
+      <c r="E376">
+        <v>-110</v>
+      </c>
+      <c r="F376">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B377" t="s">
+        <v>15</v>
+      </c>
+      <c r="C377" t="s">
+        <v>34</v>
+      </c>
+      <c r="D377">
+        <v>16.5</v>
+      </c>
+      <c r="E377">
+        <v>-110</v>
+      </c>
+      <c r="F377">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B378" t="s">
+        <v>36</v>
+      </c>
+      <c r="C378" t="s">
+        <v>18</v>
+      </c>
+      <c r="D378">
+        <v>15.5</v>
+      </c>
+      <c r="E378">
+        <v>105</v>
+      </c>
+      <c r="F378">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B379" t="s">
+        <v>27</v>
+      </c>
+      <c r="C379" t="s">
+        <v>35</v>
+      </c>
+      <c r="D379">
+        <v>15.5</v>
+      </c>
+      <c r="E379">
+        <v>-115</v>
+      </c>
+      <c r="F379">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B380" t="s">
+        <v>17</v>
+      </c>
+      <c r="C380" t="s">
+        <v>30</v>
+      </c>
+      <c r="D380">
+        <v>16.5</v>
+      </c>
+      <c r="E380">
+        <v>-110</v>
+      </c>
+      <c r="F380">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B381" t="s">
+        <v>28</v>
+      </c>
+      <c r="C381" t="s">
+        <v>29</v>
+      </c>
+      <c r="D381">
+        <v>15.5</v>
+      </c>
+      <c r="E381">
+        <v>-110</v>
+      </c>
+      <c r="F381">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B382" t="s">
+        <v>32</v>
+      </c>
+      <c r="C382" t="s">
+        <v>12</v>
+      </c>
+      <c r="D382">
+        <v>15.5</v>
+      </c>
+      <c r="E382">
+        <v>-130</v>
+      </c>
+      <c r="F382">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B383" t="s">
+        <v>23</v>
+      </c>
+      <c r="C383" t="s">
+        <v>10</v>
+      </c>
+      <c r="D383">
+        <v>16.5</v>
+      </c>
+      <c r="E383">
+        <v>-110</v>
+      </c>
+      <c r="F383">
+        <v>-125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/odds/total_hits.xlsx
+++ b/backend/data/odds/total_hits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1328" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0677C4AE-445E-4742-B7BA-09C9B5C30F95}"/>
+  <xr:revisionPtr revIDLastSave="1370" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979396CF-066A-447C-B9F8-E976F94F2318}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="440" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3170" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="37">
   <si>
     <t>visitor</t>
   </si>
@@ -67,12 +67,6 @@
     <t>Pittsburgh Pirates</t>
   </si>
   <si>
-    <t>Saint Luis Cardinals</t>
-  </si>
-  <si>
-    <t>Cinncinatti Reds</t>
-  </si>
-  <si>
     <t>Atlanta Braves</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
   </si>
   <si>
     <t>Arizona Diamondbacks</t>
-  </si>
-  <si>
-    <t>Clevevand Gaurdians</t>
   </si>
   <si>
     <t>Kansas City Royals</t>
@@ -121,9 +112,6 @@
     <t>Oakland Athletics</t>
   </si>
   <si>
-    <t>Philidelphia Phillies</t>
-  </si>
-  <si>
     <t>Seattle Mariners</t>
   </si>
   <si>
@@ -148,7 +136,16 @@
     <t>Tampa Bay Rays</t>
   </si>
   <si>
-    <t>Cleveland Gaurdians</t>
+    <t>Philadelphia Phillies</t>
+  </si>
+  <si>
+    <t>Cincinnati Reds</t>
+  </si>
+  <si>
+    <t>Cleveland Guardians</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals</t>
   </si>
 </sst>
 </file>
@@ -467,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F383"/>
+  <dimension ref="A1:F386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="F384" sqref="F384"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,7 +477,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -546,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>15.5</v>
@@ -563,10 +560,10 @@
         <v>44658</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>16.5</v>
@@ -583,10 +580,10 @@
         <v>44658</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -594,10 +591,10 @@
         <v>44658</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>16.5</v>
@@ -614,10 +611,10 @@
         <v>44658</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>16.5</v>
@@ -634,10 +631,10 @@
         <v>44659</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>18.5</v>
@@ -654,10 +651,10 @@
         <v>44659</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>15.5</v>
@@ -694,10 +691,10 @@
         <v>44659</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>17.5</v>
@@ -714,10 +711,10 @@
         <v>44659</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -725,10 +722,10 @@
         <v>44659</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>15.5</v>
@@ -745,10 +742,10 @@
         <v>44659</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>17.5</v>
@@ -765,10 +762,10 @@
         <v>44659</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>17.5</v>
@@ -785,10 +782,10 @@
         <v>44659</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>16.5</v>
@@ -805,10 +802,10 @@
         <v>44659</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>15.5</v>
@@ -828,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>16.5</v>
@@ -865,10 +862,10 @@
         <v>44660</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>15.5</v>
@@ -905,10 +902,10 @@
         <v>44660</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>18.5</v>
@@ -925,10 +922,10 @@
         <v>44660</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>18.5</v>
@@ -945,10 +942,10 @@
         <v>44660</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -956,10 +953,10 @@
         <v>44660</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>16.5</v>
@@ -976,10 +973,10 @@
         <v>44660</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>17.5</v>
@@ -996,10 +993,10 @@
         <v>44660</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>17.5</v>
@@ -1016,10 +1013,10 @@
         <v>44660</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>16.5</v>
@@ -1036,10 +1033,10 @@
         <v>44660</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>16.5</v>
@@ -1056,10 +1053,10 @@
         <v>44660</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>17.5</v>
@@ -1096,10 +1093,10 @@
         <v>44661</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>17.5</v>
@@ -1119,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>16.5</v>
@@ -1156,10 +1153,10 @@
         <v>44661</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>18.5</v>
@@ -1176,10 +1173,10 @@
         <v>44661</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>16.5</v>
@@ -1196,10 +1193,10 @@
         <v>44661</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1207,10 +1204,10 @@
         <v>44661</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>16.5</v>
@@ -1227,10 +1224,10 @@
         <v>44661</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D40">
         <v>16.5</v>
@@ -1247,10 +1244,10 @@
         <v>44661</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D41">
         <v>18.5</v>
@@ -1267,10 +1264,10 @@
         <v>44661</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>16.5</v>
@@ -1287,10 +1284,10 @@
         <v>44661</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>16.5</v>
@@ -1307,10 +1304,10 @@
         <v>44661</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>17.5</v>
@@ -1327,10 +1324,10 @@
         <v>44661</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D45">
         <v>17.5</v>
@@ -1347,10 +1344,10 @@
         <v>44661</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>17.5</v>
@@ -1390,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>16.5</v>
@@ -1407,10 +1404,10 @@
         <v>44663</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1418,10 +1415,10 @@
         <v>44663</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D50">
         <v>17.5</v>
@@ -1438,10 +1435,10 @@
         <v>44663</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>17.5</v>
@@ -1458,10 +1455,10 @@
         <v>44663</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D52">
         <v>16.5</v>
@@ -1478,10 +1475,10 @@
         <v>44663</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D53">
         <v>18.5</v>
@@ -1498,10 +1495,10 @@
         <v>44663</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D54">
         <v>16.5</v>
@@ -1518,10 +1515,10 @@
         <v>44663</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>17.5</v>
@@ -1538,10 +1535,10 @@
         <v>44663</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D56">
         <v>17.5</v>
@@ -1558,10 +1555,10 @@
         <v>44663</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D57">
         <v>17.5</v>
@@ -1578,10 +1575,10 @@
         <v>44663</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D58">
         <v>18.5</v>
@@ -1598,10 +1595,10 @@
         <v>44663</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -1609,7 +1606,7 @@
         <v>44665</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1649,10 +1646,10 @@
         <v>44665</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>16.5</v>
@@ -1669,10 +1666,10 @@
         <v>44665</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -1683,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D64">
         <v>18.5</v>
@@ -1700,10 +1697,10 @@
         <v>44665</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>18.5</v>
@@ -1720,10 +1717,10 @@
         <v>44665</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -1731,10 +1728,10 @@
         <v>44665</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -1742,10 +1739,10 @@
         <v>44665</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D68">
         <v>16.5</v>
@@ -1762,10 +1759,10 @@
         <v>44665</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D69">
         <v>16.5</v>
@@ -1782,10 +1779,10 @@
         <v>44665</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>16.5</v>
@@ -1802,7 +1799,7 @@
         <v>44666</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -1833,10 +1830,10 @@
         <v>44666</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D73">
         <v>15.5</v>
@@ -1853,7 +1850,7 @@
         <v>44666</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1876,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D75">
         <v>18.5</v>
@@ -1893,10 +1890,10 @@
         <v>44666</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -1904,10 +1901,10 @@
         <v>44666</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D77">
         <v>17.5</v>
@@ -1924,10 +1921,10 @@
         <v>44666</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D78">
         <v>18.5</v>
@@ -1944,10 +1941,10 @@
         <v>44666</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D79">
         <v>17.5</v>
@@ -1964,10 +1961,10 @@
         <v>44666</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D80">
         <v>17.5</v>
@@ -1984,10 +1981,10 @@
         <v>44666</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D81">
         <v>16.5</v>
@@ -2004,10 +2001,10 @@
         <v>44666</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D82">
         <v>18.5</v>
@@ -2024,10 +2021,10 @@
         <v>44666</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>16.5</v>
@@ -2044,10 +2041,10 @@
         <v>44666</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D84">
         <v>17.5</v>
@@ -2064,10 +2061,10 @@
         <v>44666</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D85">
         <v>16.5</v>
@@ -2084,7 +2081,7 @@
         <v>44667</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -2095,10 +2092,10 @@
         <v>44667</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -2106,10 +2103,10 @@
         <v>44667</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D88">
         <v>16.5</v>
@@ -2146,7 +2143,7 @@
         <v>44667</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2169,7 +2166,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D91">
         <v>18.5</v>
@@ -2186,10 +2183,10 @@
         <v>44667</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D92">
         <v>16.5</v>
@@ -2206,10 +2203,10 @@
         <v>44667</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D93">
         <v>16.5</v>
@@ -2226,10 +2223,10 @@
         <v>44667</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D94">
         <v>16.5</v>
@@ -2246,10 +2243,10 @@
         <v>44667</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D95">
         <v>17.5</v>
@@ -2266,10 +2263,10 @@
         <v>44667</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <v>16.5</v>
@@ -2286,10 +2283,10 @@
         <v>44667</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D97">
         <v>17.5</v>
@@ -2306,10 +2303,10 @@
         <v>44667</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D98">
         <v>17.5</v>
@@ -2326,10 +2323,10 @@
         <v>44667</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D99">
         <v>15.5</v>
@@ -2346,10 +2343,10 @@
         <v>44667</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D100">
         <v>16.5</v>
@@ -2386,7 +2383,7 @@
         <v>44668</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -2397,10 +2394,10 @@
         <v>44668</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D103">
         <v>16.5</v>
@@ -2417,7 +2414,7 @@
         <v>44668</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2440,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D105">
         <v>18.5</v>
@@ -2457,10 +2454,10 @@
         <v>44668</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D106">
         <v>16.5</v>
@@ -2477,10 +2474,10 @@
         <v>44668</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -2488,10 +2485,10 @@
         <v>44668</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D108">
         <v>16.5</v>
@@ -2508,10 +2505,10 @@
         <v>44668</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D109">
         <v>17.5</v>
@@ -2528,10 +2525,10 @@
         <v>44668</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D110">
         <v>16.5</v>
@@ -2548,10 +2545,10 @@
         <v>44668</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D111">
         <v>16.5</v>
@@ -2568,10 +2565,10 @@
         <v>44668</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D112">
         <v>16.5</v>
@@ -2588,10 +2585,10 @@
         <v>44668</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D113">
         <v>17.5</v>
@@ -2608,10 +2605,10 @@
         <v>44668</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D114">
         <v>16.5</v>
@@ -2628,10 +2625,10 @@
         <v>44668</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D115">
         <v>15.5</v>
@@ -2648,7 +2645,7 @@
         <v>44669</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -2659,7 +2656,7 @@
         <v>44669</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -2699,10 +2696,10 @@
         <v>44669</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D119">
         <v>18.5</v>
@@ -2719,10 +2716,10 @@
         <v>44669</v>
       </c>
       <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
         <v>11</v>
-      </c>
-      <c r="C120" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -2730,10 +2727,10 @@
         <v>44669</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D121">
         <v>16.5</v>
@@ -2750,10 +2747,10 @@
         <v>44669</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D122">
         <v>16.5</v>
@@ -2770,10 +2767,10 @@
         <v>44669</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C123" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D123">
         <v>15.5</v>
@@ -2790,10 +2787,10 @@
         <v>44669</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D124">
         <v>17.5</v>
@@ -2810,10 +2807,10 @@
         <v>44669</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D125">
         <v>15.5</v>
@@ -2830,7 +2827,7 @@
         <v>44669</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -2850,10 +2847,10 @@
         <v>44670</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D127">
         <v>16.5</v>
@@ -2870,7 +2867,7 @@
         <v>44670</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -2901,10 +2898,10 @@
         <v>44670</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D130">
         <v>18.5</v>
@@ -2921,10 +2918,10 @@
         <v>44670</v>
       </c>
       <c r="B131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" t="s">
         <v>11</v>
-      </c>
-      <c r="C131" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -2932,10 +2929,10 @@
         <v>44670</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D132">
         <v>16.5</v>
@@ -2952,10 +2949,10 @@
         <v>44670</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D133">
         <v>15.5</v>
@@ -2972,10 +2969,10 @@
         <v>44670</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D134">
         <v>16.5</v>
@@ -2992,10 +2989,10 @@
         <v>44670</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D135">
         <v>17.5</v>
@@ -3012,10 +3009,10 @@
         <v>44670</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D136">
         <v>16.5</v>
@@ -3032,10 +3029,10 @@
         <v>44670</v>
       </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D137">
         <v>16.5</v>
@@ -3052,10 +3049,10 @@
         <v>44670</v>
       </c>
       <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
         <v>25</v>
-      </c>
-      <c r="C138" t="s">
-        <v>29</v>
       </c>
       <c r="D138">
         <v>15.5</v>
@@ -3072,7 +3069,7 @@
         <v>44670</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
@@ -3083,7 +3080,7 @@
         <v>44670</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -3094,7 +3091,7 @@
         <v>44672</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -3105,10 +3102,10 @@
         <v>44672</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D142">
         <v>15.5</v>
@@ -3145,10 +3142,10 @@
         <v>44672</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D144">
         <v>15.5</v>
@@ -3165,10 +3162,10 @@
         <v>44672</v>
       </c>
       <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
         <v>25</v>
-      </c>
-      <c r="C145" t="s">
-        <v>29</v>
       </c>
       <c r="D145">
         <v>16.5</v>
@@ -3205,10 +3202,10 @@
         <v>44673</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D147">
         <v>17.5</v>
@@ -3225,7 +3222,7 @@
         <v>44673</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
@@ -3248,7 +3245,7 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D149">
         <v>16.5</v>
@@ -3265,10 +3262,10 @@
         <v>44673</v>
       </c>
       <c r="B150" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D150">
         <v>16.5</v>
@@ -3288,7 +3285,7 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -3296,10 +3293,10 @@
         <v>44673</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -3307,10 +3304,10 @@
         <v>44673</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D153">
         <v>17.5</v>
@@ -3327,10 +3324,10 @@
         <v>44673</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D154">
         <v>16.5</v>
@@ -3347,10 +3344,10 @@
         <v>44673</v>
       </c>
       <c r="B155" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D155">
         <v>16.5</v>
@@ -3367,10 +3364,10 @@
         <v>44673</v>
       </c>
       <c r="B156" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D156">
         <v>16.5</v>
@@ -3387,10 +3384,10 @@
         <v>44673</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D157">
         <v>16.5</v>
@@ -3407,10 +3404,10 @@
         <v>44673</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D158">
         <v>15.5</v>
@@ -3427,10 +3424,10 @@
         <v>44673</v>
       </c>
       <c r="B159" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D159">
         <v>16.5</v>
@@ -3447,10 +3444,10 @@
         <v>44673</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D160">
         <v>16.5</v>
@@ -3490,7 +3487,7 @@
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D162">
         <v>16.5</v>
@@ -3507,10 +3504,10 @@
         <v>44674</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D163">
         <v>16.5</v>
@@ -3527,10 +3524,10 @@
         <v>44674</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D164">
         <v>16.5</v>
@@ -3550,7 +3547,7 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -3558,10 +3555,10 @@
         <v>44674</v>
       </c>
       <c r="B166" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -3569,10 +3566,10 @@
         <v>44674</v>
       </c>
       <c r="B167" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D167">
         <v>16.5</v>
@@ -3589,10 +3586,10 @@
         <v>44674</v>
       </c>
       <c r="B168" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D168">
         <v>15.5</v>
@@ -3609,10 +3606,10 @@
         <v>44674</v>
       </c>
       <c r="B169" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D169">
         <v>16.5</v>
@@ -3629,10 +3626,10 @@
         <v>44674</v>
       </c>
       <c r="B170" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D170">
         <v>15.5</v>
@@ -3649,10 +3646,10 @@
         <v>44674</v>
       </c>
       <c r="B171" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D171">
         <v>16.5</v>
@@ -3669,10 +3666,10 @@
         <v>44674</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D172">
         <v>15.5</v>
@@ -3689,10 +3686,10 @@
         <v>44674</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -3700,7 +3697,7 @@
         <v>44675</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
@@ -3720,10 +3717,10 @@
         <v>44675</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D175">
         <v>16.5</v>
@@ -3740,10 +3737,10 @@
         <v>44675</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D176">
         <v>17.5</v>
@@ -3783,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -3791,10 +3788,10 @@
         <v>44675</v>
       </c>
       <c r="B179" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -3805,7 +3802,7 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D180">
         <v>15.5</v>
@@ -3822,10 +3819,10 @@
         <v>44675</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C181" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D181">
         <v>15.5</v>
@@ -3843,10 +3840,10 @@
         <v>44675</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D182">
         <v>15.5</v>
@@ -3863,10 +3860,10 @@
         <v>44675</v>
       </c>
       <c r="B183" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D183">
         <v>16.5</v>
@@ -3883,10 +3880,10 @@
         <v>44675</v>
       </c>
       <c r="B184" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D184">
         <v>16.5</v>
@@ -3903,10 +3900,10 @@
         <v>44675</v>
       </c>
       <c r="B185" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D185">
         <v>17.5</v>
@@ -3923,10 +3920,10 @@
         <v>44675</v>
       </c>
       <c r="B186" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D186">
         <v>15.5</v>
@@ -3943,10 +3940,10 @@
         <v>44675</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D187">
         <v>16.5</v>
@@ -3963,10 +3960,10 @@
         <v>44675</v>
       </c>
       <c r="B188" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D188">
         <v>16.5</v>
@@ -3983,7 +3980,7 @@
         <v>44676</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4003,10 +4000,10 @@
         <v>44676</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D190">
         <v>17.5</v>
@@ -4026,7 +4023,7 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D191">
         <v>15.5</v>
@@ -4043,10 +4040,10 @@
         <v>44676</v>
       </c>
       <c r="B192" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -4054,10 +4051,10 @@
         <v>44676</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D193">
         <v>16.5</v>
@@ -4074,10 +4071,10 @@
         <v>44676</v>
       </c>
       <c r="B194" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D194">
         <v>16.5</v>
@@ -4094,10 +4091,10 @@
         <v>44676</v>
       </c>
       <c r="B195" t="s">
+        <v>35</v>
+      </c>
+      <c r="C195" t="s">
         <v>15</v>
-      </c>
-      <c r="C195" t="s">
-        <v>18</v>
       </c>
       <c r="D195">
         <v>16.5</v>
@@ -4134,10 +4131,10 @@
         <v>44677</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -4145,10 +4142,10 @@
         <v>44677</v>
       </c>
       <c r="B198" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D198">
         <v>16.5</v>
@@ -4165,7 +4162,7 @@
         <v>44677</v>
       </c>
       <c r="B199" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C199" t="s">
         <v>8</v>
@@ -4188,7 +4185,7 @@
         <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D200">
         <v>16.5</v>
@@ -4208,7 +4205,7 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D201">
         <v>15.5</v>
@@ -4225,10 +4222,10 @@
         <v>44677</v>
       </c>
       <c r="B202" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -4236,10 +4233,10 @@
         <v>44677</v>
       </c>
       <c r="B203" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D203">
         <v>14.5</v>
@@ -4256,10 +4253,10 @@
         <v>44677</v>
       </c>
       <c r="B204" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D204">
         <v>16.5</v>
@@ -4276,10 +4273,10 @@
         <v>44677</v>
       </c>
       <c r="B205" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C205" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D205">
         <v>16.5</v>
@@ -4296,10 +4293,10 @@
         <v>44677</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D206">
         <v>17.5</v>
@@ -4316,10 +4313,10 @@
         <v>44677</v>
       </c>
       <c r="B207" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C207" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D207">
         <v>15.5</v>
@@ -4336,10 +4333,10 @@
         <v>44677</v>
       </c>
       <c r="B208" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D208">
         <v>17.5</v>
@@ -4356,10 +4353,10 @@
         <v>44677</v>
       </c>
       <c r="B209" t="s">
+        <v>35</v>
+      </c>
+      <c r="C209" t="s">
         <v>15</v>
-      </c>
-      <c r="C209" t="s">
-        <v>18</v>
       </c>
       <c r="D209">
         <v>16.5</v>
@@ -4376,10 +4373,10 @@
         <v>44677</v>
       </c>
       <c r="B210" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C210" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D210">
         <v>14.5</v>
@@ -4399,7 +4396,7 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D211">
         <v>15.5</v>
@@ -4416,10 +4413,10 @@
         <v>44678</v>
       </c>
       <c r="B212" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -4438,10 +4435,10 @@
         <v>44678</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -4449,10 +4446,10 @@
         <v>44678</v>
       </c>
       <c r="B215" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D215">
         <v>16.5</v>
@@ -4469,7 +4466,7 @@
         <v>44678</v>
       </c>
       <c r="B216" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C216" t="s">
         <v>8</v>
@@ -4492,7 +4489,7 @@
         <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D217">
         <v>16.5</v>
@@ -4509,10 +4506,10 @@
         <v>44678</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D218">
         <v>15.5</v>
@@ -4529,10 +4526,10 @@
         <v>44678</v>
       </c>
       <c r="B219" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C219" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D219">
         <v>16.5</v>
@@ -4549,10 +4546,10 @@
         <v>44678</v>
       </c>
       <c r="B220" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C220" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D220">
         <v>17.5</v>
@@ -4569,10 +4566,10 @@
         <v>44678</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D221">
         <v>15.5</v>
@@ -4589,10 +4586,10 @@
         <v>44678</v>
       </c>
       <c r="B222" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C222" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D222">
         <v>15.5</v>
@@ -4609,10 +4606,10 @@
         <v>44678</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C223" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D223">
         <v>16.5</v>
@@ -4629,10 +4626,10 @@
         <v>44678</v>
       </c>
       <c r="B224" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224" t="s">
         <v>15</v>
-      </c>
-      <c r="C224" t="s">
-        <v>18</v>
       </c>
       <c r="D224">
         <v>15.5</v>
@@ -4649,10 +4646,10 @@
         <v>44678</v>
       </c>
       <c r="B225" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D225">
         <v>15.5</v>
@@ -4669,10 +4666,10 @@
         <v>44679</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -4700,10 +4697,10 @@
         <v>44679</v>
       </c>
       <c r="B228" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D228">
         <v>15.5</v>
@@ -4720,7 +4717,7 @@
         <v>44679</v>
       </c>
       <c r="B229" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C229" t="s">
         <v>8</v>
@@ -4743,7 +4740,7 @@
         <v>6</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D230">
         <v>16.5</v>
@@ -4760,10 +4757,10 @@
         <v>44679</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
@@ -4771,10 +4768,10 @@
         <v>44679</v>
       </c>
       <c r="B232" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C232" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D232">
         <v>16.5</v>
@@ -4791,10 +4788,10 @@
         <v>44679</v>
       </c>
       <c r="B233" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C233" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D233">
         <v>16.5</v>
@@ -4811,10 +4808,10 @@
         <v>44679</v>
       </c>
       <c r="B234" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C234" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D234">
         <v>15.5</v>
@@ -4831,10 +4828,10 @@
         <v>44679</v>
       </c>
       <c r="B235" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D235">
         <v>16.5</v>
@@ -4851,10 +4848,10 @@
         <v>44679</v>
       </c>
       <c r="B236" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C236" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D236">
         <v>15.5</v>
@@ -4871,10 +4868,10 @@
         <v>44679</v>
       </c>
       <c r="B237" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C237" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D237">
         <v>16.5</v>
@@ -4891,10 +4888,10 @@
         <v>44679</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D238">
         <v>16.5</v>
@@ -4911,7 +4908,7 @@
         <v>44680</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
@@ -4922,7 +4919,7 @@
         <v>44680</v>
       </c>
       <c r="B240" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
@@ -4962,10 +4959,10 @@
         <v>44680</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -4973,10 +4970,10 @@
         <v>44680</v>
       </c>
       <c r="B243" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D243">
         <v>18.5</v>
@@ -4996,7 +4993,7 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D244">
         <v>15.5</v>
@@ -5013,10 +5010,10 @@
         <v>44680</v>
       </c>
       <c r="B245" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C245" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D245">
         <v>16.5</v>
@@ -5033,10 +5030,10 @@
         <v>44680</v>
       </c>
       <c r="B246" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D246">
         <v>16.5</v>
@@ -5053,10 +5050,10 @@
         <v>44680</v>
       </c>
       <c r="B247" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C247" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D247">
         <v>15.5</v>
@@ -5073,10 +5070,10 @@
         <v>44680</v>
       </c>
       <c r="B248" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D248">
         <v>15.5</v>
@@ -5093,10 +5090,10 @@
         <v>44680</v>
       </c>
       <c r="B249" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D249">
         <v>16.5</v>
@@ -5113,10 +5110,10 @@
         <v>44680</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C250" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D250">
         <v>14.5</v>
@@ -5133,10 +5130,10 @@
         <v>44680</v>
       </c>
       <c r="B251" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C251" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D251">
         <v>15.5</v>
@@ -5153,10 +5150,10 @@
         <v>44680</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D252">
         <v>17.5</v>
@@ -5173,10 +5170,10 @@
         <v>44680</v>
       </c>
       <c r="B253" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D253">
         <v>16.5</v>
@@ -5193,10 +5190,10 @@
         <v>44681</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
@@ -5204,7 +5201,7 @@
         <v>44681</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
@@ -5224,10 +5221,10 @@
         <v>44681</v>
       </c>
       <c r="B256" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D256">
         <v>15.5</v>
@@ -5244,10 +5241,10 @@
         <v>44681</v>
       </c>
       <c r="B257" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C257" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D257">
         <v>15.5</v>
@@ -5264,10 +5261,10 @@
         <v>44681</v>
       </c>
       <c r="B258" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C258" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D258">
         <v>16.5</v>
@@ -5284,10 +5281,10 @@
         <v>44681</v>
       </c>
       <c r="B259" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C259" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D259">
         <v>16.5</v>
@@ -5304,10 +5301,10 @@
         <v>44681</v>
       </c>
       <c r="B260" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C260" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D260">
         <v>15.5</v>
@@ -5324,10 +5321,10 @@
         <v>44681</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C261" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D261">
         <v>16.5</v>
@@ -5344,7 +5341,7 @@
         <v>44684</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
@@ -5355,7 +5352,7 @@
         <v>44684</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -5366,10 +5363,10 @@
         <v>44684</v>
       </c>
       <c r="B264" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -5377,7 +5374,7 @@
         <v>44684</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5400,7 +5397,7 @@
         <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D266">
         <v>18.5</v>
@@ -5417,10 +5414,10 @@
         <v>44684</v>
       </c>
       <c r="B267" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C267" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D267">
         <v>14.5</v>
@@ -5437,10 +5434,10 @@
         <v>44684</v>
       </c>
       <c r="B268" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C268" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D268">
         <v>15.5</v>
@@ -5457,10 +5454,10 @@
         <v>44684</v>
       </c>
       <c r="B269" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C269" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D269">
         <v>16.5</v>
@@ -5477,10 +5474,10 @@
         <v>44684</v>
       </c>
       <c r="B270" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C270" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D270">
         <v>16.5</v>
@@ -5497,10 +5494,10 @@
         <v>44684</v>
       </c>
       <c r="B271" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C271" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D271">
         <v>16.5</v>
@@ -5517,10 +5514,10 @@
         <v>44684</v>
       </c>
       <c r="B272" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C272" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D272">
         <v>15.5</v>
@@ -5537,10 +5534,10 @@
         <v>44684</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C273" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
@@ -5548,10 +5545,10 @@
         <v>44684</v>
       </c>
       <c r="B274" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C274" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D274">
         <v>16.5</v>
@@ -5571,7 +5568,7 @@
         <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D275">
         <v>16.5</v>
@@ -5588,7 +5585,7 @@
         <v>44684</v>
       </c>
       <c r="B276" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
@@ -5608,10 +5605,10 @@
         <v>44684</v>
       </c>
       <c r="B277" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C277" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D277">
         <v>15.5</v>
@@ -5628,10 +5625,10 @@
         <v>44685</v>
       </c>
       <c r="B278" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
@@ -5639,7 +5636,7 @@
         <v>44685</v>
       </c>
       <c r="B279" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C279" t="s">
         <v>7</v>
@@ -5659,7 +5656,7 @@
         <v>44685</v>
       </c>
       <c r="B280" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5682,7 +5679,7 @@
         <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D281">
         <v>18.5</v>
@@ -5699,10 +5696,10 @@
         <v>44685</v>
       </c>
       <c r="B282" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C282" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D282">
         <v>16.5</v>
@@ -5719,10 +5716,10 @@
         <v>44685</v>
       </c>
       <c r="B283" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C283" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D283">
         <v>14.5</v>
@@ -5739,10 +5736,10 @@
         <v>44685</v>
       </c>
       <c r="B284" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C284" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D284">
         <v>15.5</v>
@@ -5759,10 +5756,10 @@
         <v>44685</v>
       </c>
       <c r="B285" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C285" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D285">
         <v>16.5</v>
@@ -5779,10 +5776,10 @@
         <v>44685</v>
       </c>
       <c r="B286" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D286">
         <v>17.5</v>
@@ -5802,7 +5799,7 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
@@ -5810,10 +5807,10 @@
         <v>44685</v>
       </c>
       <c r="B288" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C288" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
@@ -5821,10 +5818,10 @@
         <v>44685</v>
       </c>
       <c r="B289" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C289" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D289">
         <v>16.5</v>
@@ -5841,10 +5838,10 @@
         <v>44685</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C290" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D290">
         <v>16.5</v>
@@ -5861,7 +5858,7 @@
         <v>44685</v>
       </c>
       <c r="B291" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
@@ -5884,7 +5881,7 @@
         <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
@@ -5892,10 +5889,10 @@
         <v>44685</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C293" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
@@ -5903,7 +5900,7 @@
         <v>44686</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5926,7 +5923,7 @@
         <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D295">
         <v>18.5</v>
@@ -5946,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D296">
         <v>16.5</v>
@@ -5963,10 +5960,10 @@
         <v>44686</v>
       </c>
       <c r="B297" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C297" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
@@ -5974,10 +5971,10 @@
         <v>44686</v>
       </c>
       <c r="B298" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C298" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D298">
         <v>15.5</v>
@@ -5994,10 +5991,10 @@
         <v>44686</v>
       </c>
       <c r="B299" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C299" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D299">
         <v>16.5</v>
@@ -6014,10 +6011,10 @@
         <v>44686</v>
       </c>
       <c r="B300" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D300">
         <v>16.5</v>
@@ -6034,10 +6031,10 @@
         <v>44686</v>
       </c>
       <c r="B301" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C301" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D301">
         <v>16.5</v>
@@ -6054,10 +6051,10 @@
         <v>44686</v>
       </c>
       <c r="B302" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C302" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D302">
         <v>15.5</v>
@@ -6077,7 +6074,7 @@
         <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D303">
         <v>16.5</v>
@@ -6097,7 +6094,7 @@
         <v>5</v>
       </c>
       <c r="C304" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D304">
         <v>16.5</v>
@@ -6114,10 +6111,10 @@
         <v>44687</v>
       </c>
       <c r="B305" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C305" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
@@ -6125,10 +6122,10 @@
         <v>44687</v>
       </c>
       <c r="B306" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C306" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
@@ -6136,10 +6133,10 @@
         <v>44687</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D307">
         <v>15.5</v>
@@ -6156,10 +6153,10 @@
         <v>44687</v>
       </c>
       <c r="B308" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D308">
         <v>16.5</v>
@@ -6176,10 +6173,10 @@
         <v>44687</v>
       </c>
       <c r="B309" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C309" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D309">
         <v>16.5</v>
@@ -6196,10 +6193,10 @@
         <v>44687</v>
       </c>
       <c r="B310" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C310" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D310">
         <v>14.5</v>
@@ -6216,10 +6213,10 @@
         <v>44687</v>
       </c>
       <c r="B311" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C311" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D311">
         <v>16.5</v>
@@ -6236,10 +6233,10 @@
         <v>44687</v>
       </c>
       <c r="B312" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C312" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
@@ -6247,10 +6244,10 @@
         <v>44687</v>
       </c>
       <c r="B313" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C313" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D313">
         <v>15.5</v>
@@ -6270,7 +6267,7 @@
         <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D314">
         <v>17.5</v>
@@ -6287,7 +6284,7 @@
         <v>44688</v>
       </c>
       <c r="B315" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C315" t="s">
         <v>6</v>
@@ -6301,7 +6298,7 @@
         <v>7</v>
       </c>
       <c r="C316" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D316">
         <v>15.5</v>
@@ -6321,7 +6318,7 @@
         <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
@@ -6329,10 +6326,10 @@
         <v>44688</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C318" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D318">
         <v>15.5</v>
@@ -6369,10 +6366,10 @@
         <v>44688</v>
       </c>
       <c r="B320" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C320" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
@@ -6380,10 +6377,10 @@
         <v>44688</v>
       </c>
       <c r="B321" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C321" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
@@ -6391,10 +6388,10 @@
         <v>44688</v>
       </c>
       <c r="B322" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C322" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D322">
         <v>16.5</v>
@@ -6411,10 +6408,10 @@
         <v>44688</v>
       </c>
       <c r="B323" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C323" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D323">
         <v>16.5</v>
@@ -6431,10 +6428,10 @@
         <v>44688</v>
       </c>
       <c r="B324" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C324" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D324">
         <v>16.5</v>
@@ -6451,10 +6448,10 @@
         <v>44688</v>
       </c>
       <c r="B325" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C325" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
@@ -6462,10 +6459,10 @@
         <v>44688</v>
       </c>
       <c r="B326" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D326">
         <v>16.5</v>
@@ -6482,10 +6479,10 @@
         <v>44688</v>
       </c>
       <c r="B327" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D327">
         <v>15.5</v>
@@ -6505,7 +6502,7 @@
         <v>8</v>
       </c>
       <c r="C328" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D328">
         <v>16.5</v>
@@ -6522,7 +6519,7 @@
         <v>44688</v>
       </c>
       <c r="B329" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C329" t="s">
         <v>6</v>
@@ -6533,10 +6530,10 @@
         <v>44688</v>
       </c>
       <c r="B330" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C330" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D330">
         <v>14.5</v>
@@ -6556,7 +6553,7 @@
         <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D331">
         <v>16.5</v>
@@ -6576,7 +6573,7 @@
         <v>9</v>
       </c>
       <c r="C332" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D332">
         <v>16.5</v>
@@ -6593,10 +6590,10 @@
         <v>44689</v>
       </c>
       <c r="B333" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C333" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D333">
         <v>15.5</v>
@@ -6613,10 +6610,10 @@
         <v>44689</v>
       </c>
       <c r="B334" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C334" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -6624,10 +6621,10 @@
         <v>44689</v>
       </c>
       <c r="B335" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C335" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
@@ -6635,7 +6632,7 @@
         <v>44689</v>
       </c>
       <c r="B336" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C336" t="s">
         <v>6</v>
@@ -6655,10 +6652,10 @@
         <v>44689</v>
       </c>
       <c r="B337" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C337" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D337">
         <v>15.5</v>
@@ -6675,10 +6672,10 @@
         <v>44689</v>
       </c>
       <c r="B338" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C338" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D338">
         <v>15.5</v>
@@ -6695,10 +6692,10 @@
         <v>44689</v>
       </c>
       <c r="B339" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C339" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D339">
         <v>16.5</v>
@@ -6715,10 +6712,10 @@
         <v>44689</v>
       </c>
       <c r="B340" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C340" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D340">
         <v>16.5</v>
@@ -6735,10 +6732,10 @@
         <v>44689</v>
       </c>
       <c r="B341" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C341" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D341">
         <v>15.5</v>
@@ -6755,10 +6752,10 @@
         <v>44689</v>
       </c>
       <c r="B342" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C342" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D342">
         <v>15.5</v>
@@ -6778,7 +6775,7 @@
         <v>8</v>
       </c>
       <c r="C343" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D343">
         <v>16.5</v>
@@ -6795,10 +6792,10 @@
         <v>44689</v>
       </c>
       <c r="B344" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C344" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
@@ -6806,10 +6803,10 @@
         <v>44689</v>
       </c>
       <c r="B345" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C345" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
@@ -6820,7 +6817,7 @@
         <v>7</v>
       </c>
       <c r="C346" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
@@ -6828,7 +6825,7 @@
         <v>44690</v>
       </c>
       <c r="B347" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C347" t="s">
         <v>9</v>
@@ -6851,7 +6848,7 @@
         <v>5</v>
       </c>
       <c r="C348" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D348">
         <v>15.5</v>
@@ -6868,10 +6865,10 @@
         <v>44690</v>
       </c>
       <c r="B349" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C349" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
@@ -6882,7 +6879,7 @@
         <v>6</v>
       </c>
       <c r="C350" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
@@ -6890,10 +6887,10 @@
         <v>44690</v>
       </c>
       <c r="B351" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C351" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D351">
         <v>14.5</v>
@@ -6910,10 +6907,10 @@
         <v>44690</v>
       </c>
       <c r="B352" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C352" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D352">
         <v>15.5</v>
@@ -6930,10 +6927,10 @@
         <v>44690</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C353" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D353">
         <v>15.5</v>
@@ -6950,10 +6947,10 @@
         <v>44690</v>
       </c>
       <c r="B354" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C354" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D354">
         <v>15.5</v>
@@ -6970,10 +6967,10 @@
         <v>44690</v>
       </c>
       <c r="B355" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C355" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D355">
         <v>16.5</v>
@@ -6990,7 +6987,7 @@
         <v>44691</v>
       </c>
       <c r="B356" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
         <v>9</v>
@@ -7013,7 +7010,7 @@
         <v>5</v>
       </c>
       <c r="C357" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D357">
         <v>16.5</v>
@@ -7033,7 +7030,7 @@
         <v>6</v>
       </c>
       <c r="C358" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
@@ -7041,10 +7038,10 @@
         <v>44691</v>
       </c>
       <c r="B359" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C359" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
@@ -7052,10 +7049,10 @@
         <v>44691</v>
       </c>
       <c r="B360" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C360" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D360">
         <v>15.5</v>
@@ -7072,10 +7069,10 @@
         <v>44691</v>
       </c>
       <c r="B361" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C361" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D361">
         <v>14.5</v>
@@ -7092,10 +7089,10 @@
         <v>44691</v>
       </c>
       <c r="B362" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C362" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
@@ -7103,10 +7100,10 @@
         <v>44691</v>
       </c>
       <c r="B363" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C363" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D363">
         <v>15.5</v>
@@ -7123,10 +7120,10 @@
         <v>44691</v>
       </c>
       <c r="B364" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C364" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D364">
         <v>14.5</v>
@@ -7143,10 +7140,10 @@
         <v>44691</v>
       </c>
       <c r="B365" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C365" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D365">
         <v>16.5</v>
@@ -7163,10 +7160,10 @@
         <v>44691</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C366" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D366">
         <v>15.5</v>
@@ -7183,10 +7180,10 @@
         <v>44691</v>
       </c>
       <c r="B367" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C367" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D367">
         <v>16.5</v>
@@ -7203,10 +7200,10 @@
         <v>44691</v>
       </c>
       <c r="B368" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C368" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D368">
         <v>15.5</v>
@@ -7223,10 +7220,10 @@
         <v>44691</v>
       </c>
       <c r="B369" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C369" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D369">
         <v>15.5</v>
@@ -7243,7 +7240,7 @@
         <v>44692</v>
       </c>
       <c r="B370" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C370" t="s">
         <v>9</v>
@@ -7266,7 +7263,7 @@
         <v>5</v>
       </c>
       <c r="C371" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D371">
         <v>17.5</v>
@@ -7283,10 +7280,10 @@
         <v>44692</v>
       </c>
       <c r="B372" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C372" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
@@ -7294,10 +7291,10 @@
         <v>44692</v>
       </c>
       <c r="B373" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C373" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D373">
         <v>15.5</v>
@@ -7317,7 +7314,7 @@
         <v>6</v>
       </c>
       <c r="C374" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
@@ -7345,10 +7342,10 @@
         <v>44692</v>
       </c>
       <c r="B376" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C376" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D376">
         <v>15.5</v>
@@ -7365,10 +7362,10 @@
         <v>44692</v>
       </c>
       <c r="B377" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C377" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D377">
         <v>16.5</v>
@@ -7385,10 +7382,10 @@
         <v>44692</v>
       </c>
       <c r="B378" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C378" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D378">
         <v>15.5</v>
@@ -7405,10 +7402,10 @@
         <v>44692</v>
       </c>
       <c r="B379" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C379" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D379">
         <v>15.5</v>
@@ -7425,10 +7422,10 @@
         <v>44692</v>
       </c>
       <c r="B380" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C380" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D380">
         <v>16.5</v>
@@ -7445,10 +7442,10 @@
         <v>44692</v>
       </c>
       <c r="B381" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C381" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D381">
         <v>15.5</v>
@@ -7465,10 +7462,10 @@
         <v>44692</v>
       </c>
       <c r="B382" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C382" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D382">
         <v>15.5</v>
@@ -7485,10 +7482,10 @@
         <v>44692</v>
       </c>
       <c r="B383" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C383" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D383">
         <v>16.5</v>
@@ -7498,6 +7495,66 @@
       </c>
       <c r="F383">
         <v>-125</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B384" t="s">
+        <v>33</v>
+      </c>
+      <c r="C384" t="s">
+        <v>16</v>
+      </c>
+      <c r="D384">
+        <v>16.5</v>
+      </c>
+      <c r="E384">
+        <v>105</v>
+      </c>
+      <c r="F384">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B385" t="s">
+        <v>13</v>
+      </c>
+      <c r="C385" t="s">
+        <v>22</v>
+      </c>
+      <c r="D385">
+        <v>16.5</v>
+      </c>
+      <c r="E385">
+        <v>-110</v>
+      </c>
+      <c r="F385">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B386" t="s">
+        <v>29</v>
+      </c>
+      <c r="C386" t="s">
+        <v>30</v>
+      </c>
+      <c r="D386">
+        <v>16.5</v>
+      </c>
+      <c r="E386">
+        <v>105</v>
+      </c>
+      <c r="F386">
+        <v>-145</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/odds/total_hits.xlsx
+++ b/backend/data/odds/total_hits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/MLB/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1370" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979396CF-066A-447C-B9F8-E976F94F2318}"/>
+  <xr:revisionPtr revIDLastSave="1449" documentId="11_F25DC773A252ABDACC1048DB2919503A5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F787C2-A749-46DB-8B35-4F41C08318DB}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3170" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3850" yWindow="1720" windowWidth="15690" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="36">
   <si>
     <t>visitor</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Baltimore Orioles</t>
-  </si>
-  <si>
-    <t>Tamba Bay Rays</t>
   </si>
   <si>
     <t>Texas Rangers</t>
@@ -464,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F386"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="F402" sqref="F402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,7 +474,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -543,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>15.5</v>
@@ -560,7 +557,7 @@
         <v>44658</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -591,7 +588,7 @@
         <v>44658</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -691,7 +688,7 @@
         <v>44659</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -725,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>15.5</v>
@@ -742,10 +739,10 @@
         <v>44659</v>
       </c>
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
       </c>
       <c r="D15">
         <v>17.5</v>
@@ -782,10 +779,10 @@
         <v>44659</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>16.5</v>
@@ -802,10 +799,10 @@
         <v>44659</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
       </c>
       <c r="D18">
         <v>15.5</v>
@@ -825,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>16.5</v>
@@ -902,7 +899,7 @@
         <v>44660</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -953,10 +950,10 @@
         <v>44660</v>
       </c>
       <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
       </c>
       <c r="D26">
         <v>16.5</v>
@@ -973,10 +970,10 @@
         <v>44660</v>
       </c>
       <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
         <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
       </c>
       <c r="D27">
         <v>17.5</v>
@@ -993,10 +990,10 @@
         <v>44660</v>
       </c>
       <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
       </c>
       <c r="D28">
         <v>17.5</v>
@@ -1013,7 +1010,7 @@
         <v>44660</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -1053,10 +1050,10 @@
         <v>44660</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>17.5</v>
@@ -1093,7 +1090,7 @@
         <v>44661</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -1116,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>16.5</v>
@@ -1207,7 +1204,7 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <v>16.5</v>
@@ -1224,10 +1221,10 @@
         <v>44661</v>
       </c>
       <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
         <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
       </c>
       <c r="D40">
         <v>16.5</v>
@@ -1244,10 +1241,10 @@
         <v>44661</v>
       </c>
       <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
         <v>22</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
       </c>
       <c r="D41">
         <v>18.5</v>
@@ -1264,7 +1261,7 @@
         <v>44661</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -1284,10 +1281,10 @@
         <v>44661</v>
       </c>
       <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
         <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
       </c>
       <c r="D43">
         <v>16.5</v>
@@ -1324,10 +1321,10 @@
         <v>44661</v>
       </c>
       <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
         <v>28</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
       </c>
       <c r="D45">
         <v>17.5</v>
@@ -1344,10 +1341,10 @@
         <v>44661</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>17.5</v>
@@ -1387,7 +1384,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48">
         <v>16.5</v>
@@ -1415,10 +1412,10 @@
         <v>44663</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>17.5</v>
@@ -1435,10 +1432,10 @@
         <v>44663</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51">
         <v>17.5</v>
@@ -1455,10 +1452,10 @@
         <v>44663</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D52">
         <v>16.5</v>
@@ -1475,10 +1472,10 @@
         <v>44663</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53">
         <v>18.5</v>
@@ -1495,10 +1492,10 @@
         <v>44663</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54">
         <v>16.5</v>
@@ -1538,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56">
         <v>17.5</v>
@@ -1558,7 +1555,7 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D57">
         <v>17.5</v>
@@ -1578,7 +1575,7 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58">
         <v>18.5</v>
@@ -1606,7 +1603,7 @@
         <v>44665</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1646,7 +1643,7 @@
         <v>44665</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -1697,7 +1694,7 @@
         <v>44665</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -1717,10 +1714,10 @@
         <v>44665</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -1728,10 +1725,10 @@
         <v>44665</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -1739,10 +1736,10 @@
         <v>44665</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68">
         <v>16.5</v>
@@ -1762,7 +1759,7 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69">
         <v>16.5</v>
@@ -1779,7 +1776,7 @@
         <v>44665</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -1830,7 +1827,7 @@
         <v>44666</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -1850,7 +1847,7 @@
         <v>44666</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1901,7 +1898,7 @@
         <v>44666</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -1921,10 +1918,10 @@
         <v>44666</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78">
         <v>18.5</v>
@@ -1941,7 +1938,7 @@
         <v>44666</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
@@ -1961,10 +1958,10 @@
         <v>44666</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D80">
         <v>17.5</v>
@@ -1981,10 +1978,10 @@
         <v>44666</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81">
         <v>16.5</v>
@@ -2004,7 +2001,7 @@
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82">
         <v>18.5</v>
@@ -2021,7 +2018,7 @@
         <v>44666</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -2044,7 +2041,7 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D84">
         <v>17.5</v>
@@ -2064,7 +2061,7 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85">
         <v>16.5</v>
@@ -2103,7 +2100,7 @@
         <v>44667</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -2143,7 +2140,7 @@
         <v>44667</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2183,7 +2180,7 @@
         <v>44667</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
         <v>16</v>
@@ -2203,10 +2200,10 @@
         <v>44667</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D93">
         <v>16.5</v>
@@ -2223,10 +2220,10 @@
         <v>44667</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94">
         <v>16.5</v>
@@ -2243,10 +2240,10 @@
         <v>44667</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95">
         <v>17.5</v>
@@ -2263,7 +2260,7 @@
         <v>44667</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -2286,7 +2283,7 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D97">
         <v>17.5</v>
@@ -2303,7 +2300,7 @@
         <v>44667</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
@@ -2326,7 +2323,7 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99">
         <v>15.5</v>
@@ -2346,7 +2343,7 @@
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100">
         <v>16.5</v>
@@ -2394,7 +2391,7 @@
         <v>44668</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -2414,7 +2411,7 @@
         <v>44668</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2454,7 +2451,7 @@
         <v>44668</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C106" t="s">
         <v>16</v>
@@ -2485,7 +2482,7 @@
         <v>44668</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
         <v>20</v>
@@ -2505,10 +2502,10 @@
         <v>44668</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109">
         <v>17.5</v>
@@ -2525,10 +2522,10 @@
         <v>44668</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D110">
         <v>16.5</v>
@@ -2545,7 +2542,7 @@
         <v>44668</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -2565,10 +2562,10 @@
         <v>44668</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112">
         <v>16.5</v>
@@ -2588,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D113">
         <v>17.5</v>
@@ -2608,7 +2605,7 @@
         <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D114">
         <v>16.5</v>
@@ -2628,7 +2625,7 @@
         <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D115">
         <v>15.5</v>
@@ -2696,7 +2693,7 @@
         <v>44669</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
         <v>17</v>
@@ -2716,7 +2713,7 @@
         <v>44669</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
@@ -2747,10 +2744,10 @@
         <v>44669</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122">
         <v>16.5</v>
@@ -2767,10 +2764,10 @@
         <v>44669</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123">
         <v>15.5</v>
@@ -2810,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D125">
         <v>15.5</v>
@@ -2827,7 +2824,7 @@
         <v>44669</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -2847,7 +2844,7 @@
         <v>44670</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
         <v>18</v>
@@ -2898,7 +2895,7 @@
         <v>44670</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
         <v>17</v>
@@ -2918,7 +2915,7 @@
         <v>44670</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -2949,10 +2946,10 @@
         <v>44670</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D133">
         <v>15.5</v>
@@ -2969,10 +2966,10 @@
         <v>44670</v>
       </c>
       <c r="B134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D134">
         <v>16.5</v>
@@ -2989,10 +2986,10 @@
         <v>44670</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135">
         <v>17.5</v>
@@ -3029,7 +3026,7 @@
         <v>44670</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
@@ -3049,10 +3046,10 @@
         <v>44670</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D138">
         <v>15.5</v>
@@ -3069,7 +3066,7 @@
         <v>44670</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
@@ -3102,7 +3099,7 @@
         <v>44672</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
         <v>18</v>
@@ -3145,7 +3142,7 @@
         <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D144">
         <v>15.5</v>
@@ -3162,10 +3159,10 @@
         <v>44672</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D145">
         <v>16.5</v>
@@ -3202,10 +3199,10 @@
         <v>44673</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D147">
         <v>17.5</v>
@@ -3245,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D149">
         <v>16.5</v>
@@ -3304,10 +3301,10 @@
         <v>44673</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D153">
         <v>17.5</v>
@@ -3324,10 +3321,10 @@
         <v>44673</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D154">
         <v>16.5</v>
@@ -3344,7 +3341,7 @@
         <v>44673</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -3364,10 +3361,10 @@
         <v>44673</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D156">
         <v>16.5</v>
@@ -3407,7 +3404,7 @@
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D158">
         <v>15.5</v>
@@ -3424,10 +3421,10 @@
         <v>44673</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D159">
         <v>16.5</v>
@@ -3447,7 +3444,7 @@
         <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D160">
         <v>16.5</v>
@@ -3487,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D162">
         <v>16.5</v>
@@ -3504,10 +3501,10 @@
         <v>44674</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D163">
         <v>16.5</v>
@@ -3566,10 +3563,10 @@
         <v>44674</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C167" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D167">
         <v>16.5</v>
@@ -3586,10 +3583,10 @@
         <v>44674</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168">
         <v>15.5</v>
@@ -3606,7 +3603,7 @@
         <v>44674</v>
       </c>
       <c r="B169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
@@ -3626,10 +3623,10 @@
         <v>44674</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D170">
         <v>15.5</v>
@@ -3669,7 +3666,7 @@
         <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D172">
         <v>15.5</v>
@@ -3689,7 +3686,7 @@
         <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -3737,10 +3734,10 @@
         <v>44675</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D176">
         <v>17.5</v>
@@ -3802,7 +3799,7 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D180">
         <v>15.5</v>
@@ -3819,10 +3816,10 @@
         <v>44675</v>
       </c>
       <c r="B181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D181">
         <v>15.5</v>
@@ -3840,10 +3837,10 @@
         <v>44675</v>
       </c>
       <c r="B182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D182">
         <v>15.5</v>
@@ -3860,7 +3857,7 @@
         <v>44675</v>
       </c>
       <c r="B183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C183" t="s">
         <v>14</v>
@@ -3880,10 +3877,10 @@
         <v>44675</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C184" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D184">
         <v>16.5</v>
@@ -3920,10 +3917,10 @@
         <v>44675</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D186">
         <v>15.5</v>
@@ -3943,7 +3940,7 @@
         <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D187">
         <v>16.5</v>
@@ -3963,7 +3960,7 @@
         <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D188">
         <v>16.5</v>
@@ -4003,7 +4000,7 @@
         <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D190">
         <v>17.5</v>
@@ -4023,7 +4020,7 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D191">
         <v>15.5</v>
@@ -4051,10 +4048,10 @@
         <v>44676</v>
       </c>
       <c r="B193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D193">
         <v>16.5</v>
@@ -4074,7 +4071,7 @@
         <v>14</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D194">
         <v>16.5</v>
@@ -4091,7 +4088,7 @@
         <v>44676</v>
       </c>
       <c r="B195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C195" t="s">
         <v>15</v>
@@ -4134,7 +4131,7 @@
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -4145,7 +4142,7 @@
         <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D198">
         <v>16.5</v>
@@ -4205,7 +4202,7 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D201">
         <v>15.5</v>
@@ -4233,10 +4230,10 @@
         <v>44677</v>
       </c>
       <c r="B203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D203">
         <v>14.5</v>
@@ -4256,7 +4253,7 @@
         <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D204">
         <v>16.5</v>
@@ -4273,10 +4270,10 @@
         <v>44677</v>
       </c>
       <c r="B205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D205">
         <v>16.5</v>
@@ -4296,7 +4293,7 @@
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D206">
         <v>17.5</v>
@@ -4313,10 +4310,10 @@
         <v>44677</v>
       </c>
       <c r="B207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D207">
         <v>15.5</v>
@@ -4336,7 +4333,7 @@
         <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D208">
         <v>17.5</v>
@@ -4353,7 +4350,7 @@
         <v>44677</v>
       </c>
       <c r="B209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C209" t="s">
         <v>15</v>
@@ -4373,7 +4370,7 @@
         <v>44677</v>
       </c>
       <c r="B210" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C210" t="s">
         <v>19</v>
@@ -4396,7 +4393,7 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D211">
         <v>15.5</v>
@@ -4438,7 +4435,7 @@
         <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -4449,7 +4446,7 @@
         <v>17</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D215">
         <v>16.5</v>
@@ -4506,10 +4503,10 @@
         <v>44678</v>
       </c>
       <c r="B218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D218">
         <v>15.5</v>
@@ -4529,7 +4526,7 @@
         <v>20</v>
       </c>
       <c r="C219" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D219">
         <v>16.5</v>
@@ -4546,10 +4543,10 @@
         <v>44678</v>
       </c>
       <c r="B220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D220">
         <v>17.5</v>
@@ -4569,7 +4566,7 @@
         <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D221">
         <v>15.5</v>
@@ -4586,10 +4583,10 @@
         <v>44678</v>
       </c>
       <c r="B222" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C222" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D222">
         <v>15.5</v>
@@ -4609,7 +4606,7 @@
         <v>14</v>
       </c>
       <c r="C223" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D223">
         <v>16.5</v>
@@ -4626,7 +4623,7 @@
         <v>44678</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C224" t="s">
         <v>15</v>
@@ -4646,7 +4643,7 @@
         <v>44678</v>
       </c>
       <c r="B225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C225" t="s">
         <v>19</v>
@@ -4669,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -4700,7 +4697,7 @@
         <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D228">
         <v>15.5</v>
@@ -4760,7 +4757,7 @@
         <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
@@ -4771,7 +4768,7 @@
         <v>20</v>
       </c>
       <c r="C232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D232">
         <v>16.5</v>
@@ -4788,10 +4785,10 @@
         <v>44679</v>
       </c>
       <c r="B233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C233" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D233">
         <v>16.5</v>
@@ -4808,10 +4805,10 @@
         <v>44679</v>
       </c>
       <c r="B234" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D234">
         <v>15.5</v>
@@ -4831,7 +4828,7 @@
         <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D235">
         <v>16.5</v>
@@ -4851,7 +4848,7 @@
         <v>13</v>
       </c>
       <c r="C236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D236">
         <v>15.5</v>
@@ -4868,10 +4865,10 @@
         <v>44679</v>
       </c>
       <c r="B237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D237">
         <v>16.5</v>
@@ -4888,7 +4885,7 @@
         <v>44679</v>
       </c>
       <c r="B238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C238" t="s">
         <v>16</v>
@@ -4919,7 +4916,7 @@
         <v>44680</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
@@ -4962,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -4970,7 +4967,7 @@
         <v>44680</v>
       </c>
       <c r="B243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C243" t="s">
         <v>17</v>
@@ -5010,7 +5007,7 @@
         <v>44680</v>
       </c>
       <c r="B245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C245" t="s">
         <v>20</v>
@@ -5033,7 +5030,7 @@
         <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D246">
         <v>16.5</v>
@@ -5050,10 +5047,10 @@
         <v>44680</v>
       </c>
       <c r="B247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D247">
         <v>15.5</v>
@@ -5073,7 +5070,7 @@
         <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D248">
         <v>15.5</v>
@@ -5090,7 +5087,7 @@
         <v>44680</v>
       </c>
       <c r="B249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -5110,10 +5107,10 @@
         <v>44680</v>
       </c>
       <c r="B250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C250" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D250">
         <v>14.5</v>
@@ -5130,7 +5127,7 @@
         <v>44680</v>
       </c>
       <c r="B251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C251" t="s">
         <v>18</v>
@@ -5153,7 +5150,7 @@
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D252">
         <v>17.5</v>
@@ -5170,7 +5167,7 @@
         <v>44680</v>
       </c>
       <c r="B253" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -5224,7 +5221,7 @@
         <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D256">
         <v>15.5</v>
@@ -5241,7 +5238,7 @@
         <v>44681</v>
       </c>
       <c r="B257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C257" t="s">
         <v>20</v>
@@ -5261,10 +5258,10 @@
         <v>44681</v>
       </c>
       <c r="B258" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C258" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D258">
         <v>16.5</v>
@@ -5281,7 +5278,7 @@
         <v>44681</v>
       </c>
       <c r="B259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C259" t="s">
         <v>14</v>
@@ -5301,10 +5298,10 @@
         <v>44681</v>
       </c>
       <c r="B260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C260" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D260">
         <v>15.5</v>
@@ -5324,7 +5321,7 @@
         <v>13</v>
       </c>
       <c r="C261" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D261">
         <v>16.5</v>
@@ -5374,7 +5371,7 @@
         <v>44684</v>
       </c>
       <c r="B265" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5434,7 +5431,7 @@
         <v>44684</v>
       </c>
       <c r="B268" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C268" t="s">
         <v>20</v>
@@ -5454,10 +5451,10 @@
         <v>44684</v>
       </c>
       <c r="B269" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C269" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D269">
         <v>16.5</v>
@@ -5477,7 +5474,7 @@
         <v>15</v>
       </c>
       <c r="C270" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D270">
         <v>16.5</v>
@@ -5494,7 +5491,7 @@
         <v>44684</v>
       </c>
       <c r="B271" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
@@ -5514,10 +5511,10 @@
         <v>44684</v>
       </c>
       <c r="B272" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C272" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D272">
         <v>15.5</v>
@@ -5537,7 +5534,7 @@
         <v>11</v>
       </c>
       <c r="C273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
@@ -5545,10 +5542,10 @@
         <v>44684</v>
       </c>
       <c r="B274" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C274" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D274">
         <v>16.5</v>
@@ -5568,7 +5565,7 @@
         <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D275">
         <v>16.5</v>
@@ -5585,7 +5582,7 @@
         <v>44684</v>
       </c>
       <c r="B276" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
@@ -5605,7 +5602,7 @@
         <v>44684</v>
       </c>
       <c r="B277" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C277" t="s">
         <v>13</v>
@@ -5656,7 +5653,7 @@
         <v>44685</v>
       </c>
       <c r="B280" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5696,7 +5693,7 @@
         <v>44685</v>
       </c>
       <c r="B282" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
@@ -5716,10 +5713,10 @@
         <v>44685</v>
       </c>
       <c r="B283" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C283" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D283">
         <v>14.5</v>
@@ -5736,7 +5733,7 @@
         <v>44685</v>
       </c>
       <c r="B284" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C284" t="s">
         <v>20</v>
@@ -5756,10 +5753,10 @@
         <v>44685</v>
       </c>
       <c r="B285" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C285" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D285">
         <v>16.5</v>
@@ -5779,7 +5776,7 @@
         <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D286">
         <v>17.5</v>
@@ -5799,7 +5796,7 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
@@ -5810,7 +5807,7 @@
         <v>11</v>
       </c>
       <c r="C288" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
@@ -5818,10 +5815,10 @@
         <v>44685</v>
       </c>
       <c r="B289" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C289" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D289">
         <v>16.5</v>
@@ -5838,7 +5835,7 @@
         <v>44685</v>
       </c>
       <c r="B290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C290" t="s">
         <v>13</v>
@@ -5858,7 +5855,7 @@
         <v>44685</v>
       </c>
       <c r="B291" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
@@ -5881,7 +5878,7 @@
         <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
@@ -5892,7 +5889,7 @@
         <v>11</v>
       </c>
       <c r="C293" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
@@ -5900,7 +5897,7 @@
         <v>44686</v>
       </c>
       <c r="B294" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5943,7 +5940,7 @@
         <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D296">
         <v>16.5</v>
@@ -5974,7 +5971,7 @@
         <v>15</v>
       </c>
       <c r="C298" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D298">
         <v>15.5</v>
@@ -5991,10 +5988,10 @@
         <v>44686</v>
       </c>
       <c r="B299" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C299" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D299">
         <v>16.5</v>
@@ -6011,7 +6008,7 @@
         <v>44686</v>
       </c>
       <c r="B300" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C300" t="s">
         <v>20</v>
@@ -6031,7 +6028,7 @@
         <v>44686</v>
       </c>
       <c r="B301" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
@@ -6051,10 +6048,10 @@
         <v>44686</v>
       </c>
       <c r="B302" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C302" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D302">
         <v>15.5</v>
@@ -6074,7 +6071,7 @@
         <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D303">
         <v>16.5</v>
@@ -6133,7 +6130,7 @@
         <v>44687</v>
       </c>
       <c r="B307" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C307" t="s">
         <v>19</v>
@@ -6173,10 +6170,10 @@
         <v>44687</v>
       </c>
       <c r="B309" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C309" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D309">
         <v>16.5</v>
@@ -6193,10 +6190,10 @@
         <v>44687</v>
       </c>
       <c r="B310" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C310" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D310">
         <v>14.5</v>
@@ -6213,7 +6210,7 @@
         <v>44687</v>
       </c>
       <c r="B311" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C311" t="s">
         <v>14</v>
@@ -6233,10 +6230,10 @@
         <v>44687</v>
       </c>
       <c r="B312" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C312" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
@@ -6244,10 +6241,10 @@
         <v>44687</v>
       </c>
       <c r="B313" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C313" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D313">
         <v>15.5</v>
@@ -6267,7 +6264,7 @@
         <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D314">
         <v>17.5</v>
@@ -6298,7 +6295,7 @@
         <v>7</v>
       </c>
       <c r="C316" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D316">
         <v>15.5</v>
@@ -6318,7 +6315,7 @@
         <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
@@ -6326,7 +6323,7 @@
         <v>44688</v>
       </c>
       <c r="B318" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C318" t="s">
         <v>19</v>
@@ -6349,7 +6346,7 @@
         <v>5</v>
       </c>
       <c r="C319" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D319">
         <v>14.5</v>
@@ -6388,10 +6385,10 @@
         <v>44688</v>
       </c>
       <c r="B322" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C322" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D322">
         <v>16.5</v>
@@ -6408,7 +6405,7 @@
         <v>44688</v>
       </c>
       <c r="B323" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C323" t="s">
         <v>14</v>
@@ -6428,10 +6425,10 @@
         <v>44688</v>
       </c>
       <c r="B324" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C324" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D324">
         <v>16.5</v>
@@ -6448,10 +6445,10 @@
         <v>44688</v>
       </c>
       <c r="B325" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C325" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
@@ -6479,10 +6476,10 @@
         <v>44688</v>
       </c>
       <c r="B327" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D327">
         <v>15.5</v>
@@ -6530,10 +6527,10 @@
         <v>44688</v>
       </c>
       <c r="B330" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C330" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D330">
         <v>14.5</v>
@@ -6573,7 +6570,7 @@
         <v>9</v>
       </c>
       <c r="C332" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D332">
         <v>16.5</v>
@@ -6590,7 +6587,7 @@
         <v>44689</v>
       </c>
       <c r="B333" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C333" t="s">
         <v>19</v>
@@ -6672,10 +6669,10 @@
         <v>44689</v>
       </c>
       <c r="B338" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D338">
         <v>15.5</v>
@@ -6692,10 +6689,10 @@
         <v>44689</v>
       </c>
       <c r="B339" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C339" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D339">
         <v>16.5</v>
@@ -6712,7 +6709,7 @@
         <v>44689</v>
       </c>
       <c r="B340" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C340" t="s">
         <v>14</v>
@@ -6732,10 +6729,10 @@
         <v>44689</v>
       </c>
       <c r="B341" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C341" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D341">
         <v>15.5</v>
@@ -6752,10 +6749,10 @@
         <v>44689</v>
       </c>
       <c r="B342" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C342" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D342">
         <v>15.5</v>
@@ -6792,10 +6789,10 @@
         <v>44689</v>
       </c>
       <c r="B344" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
@@ -6817,7 +6814,7 @@
         <v>7</v>
       </c>
       <c r="C346" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
@@ -6848,7 +6845,7 @@
         <v>5</v>
       </c>
       <c r="C348" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D348">
         <v>15.5</v>
@@ -6907,10 +6904,10 @@
         <v>44690</v>
       </c>
       <c r="B352" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C352" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D352">
         <v>15.5</v>
@@ -6927,10 +6924,10 @@
         <v>44690</v>
       </c>
       <c r="B353" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C353" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D353">
         <v>15.5</v>
@@ -6947,7 +6944,7 @@
         <v>44690</v>
       </c>
       <c r="B354" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C354" t="s">
         <v>15</v>
@@ -6967,10 +6964,10 @@
         <v>44690</v>
       </c>
       <c r="B355" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C355" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D355">
         <v>16.5</v>
@@ -7010,7 +7007,7 @@
         <v>5</v>
       </c>
       <c r="C357" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D357">
         <v>16.5</v>
@@ -7069,10 +7066,10 @@
         <v>44691</v>
       </c>
       <c r="B361" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D361">
         <v>14.5</v>
@@ -7089,10 +7086,10 @@
         <v>44691</v>
       </c>
       <c r="B362" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C362" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
@@ -7100,10 +7097,10 @@
         <v>44691</v>
       </c>
       <c r="B363" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C363" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D363">
         <v>15.5</v>
@@ -7123,7 +7120,7 @@
         <v>14</v>
       </c>
       <c r="C364" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D364">
         <v>14.5</v>
@@ -7143,7 +7140,7 @@
         <v>13</v>
       </c>
       <c r="C365" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D365">
         <v>16.5</v>
@@ -7160,10 +7157,10 @@
         <v>44691</v>
       </c>
       <c r="B366" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C366" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D366">
         <v>15.5</v>
@@ -7180,7 +7177,7 @@
         <v>44691</v>
       </c>
       <c r="B367" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C367" t="s">
         <v>15</v>
@@ -7200,7 +7197,7 @@
         <v>44691</v>
       </c>
       <c r="B368" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C368" t="s">
         <v>10</v>
@@ -7220,10 +7217,10 @@
         <v>44691</v>
       </c>
       <c r="B369" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C369" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D369">
         <v>15.5</v>
@@ -7263,7 +7260,7 @@
         <v>5</v>
       </c>
       <c r="C371" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D371">
         <v>17.5</v>
@@ -7342,10 +7339,10 @@
         <v>44692</v>
       </c>
       <c r="B376" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C376" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D376">
         <v>15.5</v>
@@ -7362,10 +7359,10 @@
         <v>44692</v>
       </c>
       <c r="B377" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C377" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D377">
         <v>16.5</v>
@@ -7382,7 +7379,7 @@
         <v>44692</v>
       </c>
       <c r="B378" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C378" t="s">
         <v>15</v>
@@ -7402,10 +7399,10 @@
         <v>44692</v>
       </c>
       <c r="B379" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C379" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D379">
         <v>15.5</v>
@@ -7425,7 +7422,7 @@
         <v>14</v>
       </c>
       <c r="C380" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D380">
         <v>16.5</v>
@@ -7442,10 +7439,10 @@
         <v>44692</v>
       </c>
       <c r="B381" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C381" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D381">
         <v>15.5</v>
@@ -7462,7 +7459,7 @@
         <v>44692</v>
       </c>
       <c r="B382" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C382" t="s">
         <v>10</v>
@@ -7485,7 +7482,7 @@
         <v>20</v>
       </c>
       <c r="C383" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D383">
         <v>16.5</v>
@@ -7502,7 +7499,7 @@
         <v>44693</v>
       </c>
       <c r="B384" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C384" t="s">
         <v>16</v>
@@ -7525,7 +7522,7 @@
         <v>13</v>
       </c>
       <c r="C385" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D385">
         <v>16.5</v>
@@ -7542,10 +7539,10 @@
         <v>44693</v>
       </c>
       <c r="B386" t="s">
+        <v>28</v>
+      </c>
+      <c r="C386" t="s">
         <v>29</v>
-      </c>
-      <c r="C386" t="s">
-        <v>30</v>
       </c>
       <c r="D386">
         <v>16.5</v>
@@ -7555,6 +7552,288 @@
       </c>
       <c r="F386">
         <v>-145</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B387" t="s">
+        <v>33</v>
+      </c>
+      <c r="C387" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387">
+        <v>16.5</v>
+      </c>
+      <c r="E387">
+        <v>105</v>
+      </c>
+      <c r="F387">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>18</v>
+      </c>
+      <c r="D388">
+        <v>14.5</v>
+      </c>
+      <c r="E388">
+        <v>-125</v>
+      </c>
+      <c r="F388">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A389" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B389" t="s">
+        <v>11</v>
+      </c>
+      <c r="C389" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A390" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B390" t="s">
+        <v>19</v>
+      </c>
+      <c r="C390" t="s">
+        <v>35</v>
+      </c>
+      <c r="D390">
+        <v>15.5</v>
+      </c>
+      <c r="E390">
+        <v>-115</v>
+      </c>
+      <c r="F390">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A391" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A392" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B392" t="s">
+        <v>32</v>
+      </c>
+      <c r="C392" t="s">
+        <v>16</v>
+      </c>
+      <c r="D392">
+        <v>15.5</v>
+      </c>
+      <c r="E392">
+        <v>-130</v>
+      </c>
+      <c r="F392">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A393" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B393" t="s">
+        <v>20</v>
+      </c>
+      <c r="C393" t="s">
+        <v>30</v>
+      </c>
+      <c r="D393">
+        <v>15.5</v>
+      </c>
+      <c r="E393">
+        <v>-115</v>
+      </c>
+      <c r="F393">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A394" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B394" t="s">
+        <v>22</v>
+      </c>
+      <c r="C394" t="s">
+        <v>31</v>
+      </c>
+      <c r="D394">
+        <v>14.5</v>
+      </c>
+      <c r="E394">
+        <v>-125</v>
+      </c>
+      <c r="F394">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A395" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B395" t="s">
+        <v>27</v>
+      </c>
+      <c r="C395" t="s">
+        <v>21</v>
+      </c>
+      <c r="D395">
+        <v>16.5</v>
+      </c>
+      <c r="E395">
+        <v>-110</v>
+      </c>
+      <c r="F395">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A396" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B396" t="s">
+        <v>34</v>
+      </c>
+      <c r="C396" t="s">
+        <v>25</v>
+      </c>
+      <c r="D396">
+        <v>16.5</v>
+      </c>
+      <c r="E396">
+        <v>105</v>
+      </c>
+      <c r="F396">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A397" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B397" t="s">
+        <v>28</v>
+      </c>
+      <c r="C397" t="s">
+        <v>29</v>
+      </c>
+      <c r="D397">
+        <v>16.5</v>
+      </c>
+      <c r="E397">
+        <v>105</v>
+      </c>
+      <c r="F397">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A398" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B398" t="s">
+        <v>15</v>
+      </c>
+      <c r="C398" t="s">
+        <v>23</v>
+      </c>
+      <c r="D398">
+        <v>16.5</v>
+      </c>
+      <c r="E398">
+        <v>125</v>
+      </c>
+      <c r="F398">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A399" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B399" t="s">
+        <v>14</v>
+      </c>
+      <c r="C399" t="s">
+        <v>8</v>
+      </c>
+      <c r="D399">
+        <v>16.5</v>
+      </c>
+      <c r="E399">
+        <v>-110</v>
+      </c>
+      <c r="F399">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A400" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B400" t="s">
+        <v>24</v>
+      </c>
+      <c r="C400" t="s">
+        <v>7</v>
+      </c>
+      <c r="D400">
+        <v>15.5</v>
+      </c>
+      <c r="E400">
+        <v>-110</v>
+      </c>
+      <c r="F400">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A401" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B401" t="s">
+        <v>13</v>
+      </c>
+      <c r="C401" t="s">
+        <v>17</v>
+      </c>
+      <c r="D401">
+        <v>18.5</v>
+      </c>
+      <c r="E401">
+        <v>-105</v>
+      </c>
+      <c r="F401">
+        <v>-135</v>
       </c>
     </row>
   </sheetData>
